--- a/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Belgium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Belgium\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -515,6 +515,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -866,27 +869,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -905,7 +908,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="5" t="s">
@@ -922,7 +925,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>2005</v>
       </c>
@@ -944,7 +947,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>2006</v>
       </c>
@@ -966,7 +969,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>2007</v>
       </c>
@@ -989,7 +992,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>2008</v>
       </c>
@@ -1011,7 +1014,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>2009</v>
       </c>
@@ -1033,7 +1036,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>2009</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>2010</v>
       </c>
@@ -1078,7 +1081,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>2011</v>
       </c>
@@ -1100,7 +1103,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>2012</v>
       </c>
@@ -1114,7 +1117,7 @@
       <c r="E11" s="9">
         <v>5000000</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="30">
         <v>1</v>
       </c>
       <c r="G11" s="11" t="str">
@@ -1122,7 +1125,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>2012</v>
       </c>
@@ -1144,7 +1147,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>2013</v>
       </c>
@@ -1166,7 +1169,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>2014</v>
       </c>
@@ -1188,7 +1191,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>2014</v>
       </c>
@@ -1210,7 +1213,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>2014</v>
       </c>
@@ -1234,7 +1237,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>2014</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>2015</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>2015</v>
       </c>
@@ -1302,7 +1305,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>2016</v>
       </c>
@@ -1324,7 +1327,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>2016</v>
       </c>
@@ -1346,7 +1349,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>2017</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>2017</v>
       </c>
@@ -1390,7 +1393,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>2018</v>
       </c>
@@ -1412,7 +1415,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>2018</v>
       </c>
@@ -1434,7 +1437,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>2019</v>
       </c>
@@ -1456,7 +1459,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>2019</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E28" s="23"/>
     </row>
   </sheetData>
@@ -1582,21 +1585,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1618,7 +1621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1629,7 +1632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1640,7 +1643,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1651,7 +1654,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1662,7 +1665,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>

--- a/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Belgium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Belgium\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="55">
   <si>
     <t>Year</t>
   </si>
@@ -213,10 +213,26 @@
     <t>High convenience set of tables table of actual coins with photos</t>
   </si>
   <si>
-    <t xml:space="preserve">Italian edge </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutch edge </t>
+    <t>Obv: With mint symbol - 
+Archangel Michael</t>
+  </si>
+  <si>
+    <t>Obv: Mint director symbol - Libra</t>
+  </si>
+  <si>
+    <t>Obv: Mint director symbol - Pen</t>
+  </si>
+  <si>
+    <t>Obv: Mint director symbol - Cat</t>
+  </si>
+  <si>
+    <t>Obv: Mint director symbol - Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edge: Italian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edge: Dutch </t>
   </si>
 </sst>
 </file>
@@ -340,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -433,13 +449,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -504,6 +529,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,8 +544,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -526,15 +554,6 @@
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -575,6 +594,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -596,9 +624,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="7"/>
+    <tableColumn id="2" name="Link" dataDxfId="6" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -867,635 +895,789 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
+    <col min="3" max="5" width="24.7265625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22">
         <v>2005</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9">
+      <c r="E3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9">
         <v>6000000</v>
       </c>
-      <c r="F3" s="10">
+      <c r="H3" s="10">
         <v>0</v>
       </c>
-      <c r="G3" s="11" t="str">
-        <f t="shared" ref="G3:G4" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="11" t="str">
+        <f t="shared" ref="I3:I4" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21">
         <v>2006</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9">
+      <c r="E4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9">
         <v>5000000</v>
       </c>
-      <c r="F4" s="10">
+      <c r="H4" s="10">
         <v>0</v>
       </c>
-      <c r="G4" s="11" t="str">
+      <c r="I4" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21">
         <v>2007</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9">
+      <c r="C5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9">
         <v>5000000</v>
       </c>
-      <c r="F5" s="10">
+      <c r="H5" s="10">
         <v>0</v>
       </c>
-      <c r="G5" s="11" t="str">
-        <f t="shared" ref="G5:G27" si="1">IF(OR(AND(F5&gt;1,F5&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="11" t="str">
+        <f t="shared" ref="I5:I27" si="1">IF(OR(AND(H5&gt;1,H5&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21">
         <v>2008</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9">
+      <c r="C6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9">
         <v>5000000</v>
       </c>
-      <c r="F6" s="10">
+      <c r="H6" s="10">
         <v>0</v>
       </c>
-      <c r="G6" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21">
         <v>2009</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9">
+      <c r="C7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9">
         <v>5011000</v>
       </c>
-      <c r="F7" s="10">
+      <c r="H7" s="10">
         <v>0</v>
       </c>
-      <c r="G7" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="21">
         <v>2009</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9">
+      <c r="C8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9">
         <v>5000000</v>
       </c>
-      <c r="F8" s="10">
+      <c r="H8" s="10">
         <v>0</v>
       </c>
-      <c r="G8" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="21">
         <v>2010</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9">
+      <c r="C9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9">
         <v>5000000</v>
       </c>
-      <c r="F9" s="10">
+      <c r="H9" s="10">
         <v>0</v>
       </c>
-      <c r="G9" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="21">
         <v>2011</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9">
+      <c r="C10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9">
         <v>5000000</v>
       </c>
-      <c r="F10" s="10">
+      <c r="H10" s="10">
         <v>0</v>
       </c>
-      <c r="G10" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="21">
         <v>2012</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9">
+      <c r="C11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9">
         <v>5000000</v>
       </c>
-      <c r="F11" s="30">
+      <c r="H11" s="26">
         <v>1</v>
       </c>
-      <c r="G11" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="21">
         <v>2012</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9">
+      <c r="C12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9">
         <v>5000000</v>
       </c>
-      <c r="F12" s="10">
+      <c r="H12" s="10">
         <v>0</v>
       </c>
-      <c r="G12" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21">
         <v>2013</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9">
+      <c r="C13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9">
         <v>2020000</v>
       </c>
-      <c r="F13" s="10">
+      <c r="H13" s="10">
         <v>0</v>
       </c>
-      <c r="G13" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21">
         <v>2014</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9">
+      <c r="C14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9">
         <v>1750000</v>
       </c>
-      <c r="F14" s="10">
+      <c r="H14" s="10">
         <v>0</v>
       </c>
-      <c r="G14" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="21">
         <v>2014</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9">
+      <c r="C15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9">
         <v>287500</v>
       </c>
-      <c r="F15" s="10">
+      <c r="H15" s="10">
         <v>0</v>
       </c>
-      <c r="G15" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21">
         <v>2014</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="C16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="9">
         <v>20000</v>
       </c>
-      <c r="F16" s="10">
+      <c r="H16" s="10">
         <v>0</v>
       </c>
-      <c r="G16" s="11" t="str">
-        <f t="shared" ref="G16:G17" si="2">IF(OR(AND(F16&gt;1,F16&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="11" t="str">
+        <f t="shared" ref="I16:I17" si="2">IF(OR(AND(H16&gt;1,H16&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21">
         <v>2014</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="C17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="9">
         <v>10000</v>
       </c>
-      <c r="F17" s="10">
+      <c r="H17" s="10">
         <v>0</v>
       </c>
-      <c r="G17" s="11" t="str">
+      <c r="I17" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="21">
         <v>2015</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="24">
+      <c r="C18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="24">
         <v>235000</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="H18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21">
         <v>2015</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="24">
+      <c r="C19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="24">
         <v>412500</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="H19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21">
         <v>2016</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="24">
+      <c r="C20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="24">
         <v>325000</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="H20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21">
         <v>2016</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9">
+      <c r="C21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9">
         <v>1020000</v>
       </c>
-      <c r="F21" s="10">
+      <c r="H21" s="10">
         <v>0</v>
       </c>
-      <c r="G21" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="21">
         <v>2017</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="24">
+      <c r="C22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="24">
         <v>200000</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21">
         <v>2017</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="24">
+      <c r="C23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="24">
         <v>200000</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="H23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21">
         <v>2018</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="24">
+      <c r="C24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="24">
         <v>257500</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="H24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21">
         <v>2018</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="24">
+      <c r="C25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="24">
         <v>257500</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="H25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="21">
         <v>2019</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="24">
+      <c r="C26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="24">
         <v>155000</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="H26" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21">
         <v>2019</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="24">
+      <c r="C27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="24">
         <v>155000</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="H27" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="23"/>
+      <c r="I27" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G28" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F15 F21">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+  <conditionalFormatting sqref="H3:H15 H21">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F15 F21">
+  <conditionalFormatting sqref="H3:H15 H21">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1507,12 +1689,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F20">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
+  <conditionalFormatting sqref="H18:H20">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F20">
+  <conditionalFormatting sqref="H18:H20">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1524,12 +1706,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F27">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
+  <conditionalFormatting sqref="H22:H27">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F27">
+  <conditionalFormatting sqref="H22:H27">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1541,12 +1723,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
+  <conditionalFormatting sqref="H16">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1558,12 +1740,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
+  <conditionalFormatting sqref="H17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1589,17 +1771,17 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
@@ -1610,7 +1792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1621,7 +1803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1632,7 +1814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1643,7 +1825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1654,7 +1836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1665,7 +1847,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>6</v>
       </c>

--- a/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Belgium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Belgium\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -541,10 +541,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -554,6 +554,15 @@
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -594,15 +603,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -624,9 +624,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="7"/>
-    <tableColumn id="2" name="Link" dataDxfId="6" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="5"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -901,23 +901,23 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
-    <col min="3" max="5" width="24.7265625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="24.81640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="12" customWidth="1"/>
+    <col min="3" max="5" width="24.7109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -927,9 +927,9 @@
       <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
@@ -938,7 +938,7 @@
       </c>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="5" t="s">
@@ -957,7 +957,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>2005</v>
       </c>
@@ -985,7 +985,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>2006</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>2007</v>
       </c>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>2008</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>2009</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>2009</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>2010</v>
       </c>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>2011</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>2012</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>2012</v>
       </c>
@@ -1232,14 +1232,14 @@
         <v>5000000</v>
       </c>
       <c r="H12" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>2013</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>2014</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>2014</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>2014</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>2014</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>2015</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>2015</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>2016</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>2016</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>2017</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>2017</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>2018</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>2018</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>2019</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>2019</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G28" s="23"/>
     </row>
   </sheetData>
@@ -1673,7 +1673,7 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H15 H21">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1690,7 +1690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:H20">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1707,7 +1707,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H27">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1724,7 +1724,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1741,7 +1741,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1774,14 +1774,14 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>

--- a/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Belgium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Belgium\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="57">
   <si>
     <t>Year</t>
   </si>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <t xml:space="preserve">Edge: Dutch </t>
+  </si>
+  <si>
+    <t>International year of plant health</t>
+  </si>
+  <si>
+    <t>Jan van Eyck</t>
   </si>
 </sst>
 </file>
@@ -464,7 +470,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -522,7 +528,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -553,7 +558,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -624,9 +637,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="3"/>
+    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -895,41 +908,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="12" customWidth="1"/>
-    <col min="3" max="5" width="24.7109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="12" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
+    <col min="3" max="5" width="24.7265625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
@@ -938,9 +951,9 @@
       </c>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -957,7 +970,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22">
         <v>2005</v>
       </c>
@@ -985,7 +998,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21">
         <v>2006</v>
       </c>
@@ -1013,7 +1026,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21">
         <v>2007</v>
       </c>
@@ -1042,7 +1055,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21">
         <v>2008</v>
       </c>
@@ -1070,7 +1083,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21">
         <v>2009</v>
       </c>
@@ -1098,7 +1111,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="21">
         <v>2009</v>
       </c>
@@ -1126,7 +1139,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="21">
         <v>2010</v>
       </c>
@@ -1155,7 +1168,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="21">
         <v>2011</v>
       </c>
@@ -1183,7 +1196,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="21">
         <v>2012</v>
       </c>
@@ -1203,7 +1216,7 @@
       <c r="G11" s="9">
         <v>5000000</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="25">
         <v>1</v>
       </c>
       <c r="I11" s="11" t="str">
@@ -1211,7 +1224,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="21">
         <v>2012</v>
       </c>
@@ -1239,7 +1252,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21">
         <v>2013</v>
       </c>
@@ -1267,7 +1280,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21">
         <v>2014</v>
       </c>
@@ -1295,7 +1308,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="21">
         <v>2014</v>
       </c>
@@ -1323,7 +1336,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21">
         <v>2014</v>
       </c>
@@ -1353,7 +1366,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21">
         <v>2014</v>
       </c>
@@ -1383,7 +1396,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="21">
         <v>2015</v>
       </c>
@@ -1400,7 +1413,7 @@
         <v>51</v>
       </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="24">
+      <c r="G18" s="23">
         <v>235000</v>
       </c>
       <c r="H18" s="10" t="s">
@@ -1411,7 +1424,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21">
         <v>2015</v>
       </c>
@@ -1428,7 +1441,7 @@
         <v>51</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="24">
+      <c r="G19" s="23">
         <v>412500</v>
       </c>
       <c r="H19" s="10" t="s">
@@ -1439,7 +1452,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21">
         <v>2016</v>
       </c>
@@ -1456,7 +1469,7 @@
         <v>51</v>
       </c>
       <c r="F20" s="8"/>
-      <c r="G20" s="24">
+      <c r="G20" s="23">
         <v>325000</v>
       </c>
       <c r="H20" s="10" t="s">
@@ -1467,7 +1480,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21">
         <v>2016</v>
       </c>
@@ -1495,7 +1508,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="21">
         <v>2017</v>
       </c>
@@ -1512,7 +1525,7 @@
         <v>52</v>
       </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="24">
+      <c r="G22" s="23">
         <v>200000</v>
       </c>
       <c r="H22" s="10" t="s">
@@ -1523,7 +1536,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21">
         <v>2017</v>
       </c>
@@ -1540,7 +1553,7 @@
         <v>52</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="24">
+      <c r="G23" s="23">
         <v>200000</v>
       </c>
       <c r="H23" s="10" t="s">
@@ -1551,7 +1564,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21">
         <v>2018</v>
       </c>
@@ -1568,7 +1581,7 @@
         <v>52</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="24">
+      <c r="G24" s="23">
         <v>257500</v>
       </c>
       <c r="H24" s="10" t="s">
@@ -1579,7 +1592,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21">
         <v>2018</v>
       </c>
@@ -1596,7 +1609,7 @@
         <v>52</v>
       </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="24">
+      <c r="G25" s="23">
         <v>257500</v>
       </c>
       <c r="H25" s="10" t="s">
@@ -1607,7 +1620,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="21">
         <v>2019</v>
       </c>
@@ -1624,7 +1637,7 @@
         <v>52</v>
       </c>
       <c r="F26" s="8"/>
-      <c r="G26" s="24">
+      <c r="G26" s="23">
         <v>155000</v>
       </c>
       <c r="H26" s="10" t="s">
@@ -1635,7 +1648,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="21">
         <v>2019</v>
       </c>
@@ -1652,7 +1665,7 @@
         <v>52</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="24">
+      <c r="G27" s="23">
         <v>155000</v>
       </c>
       <c r="H27" s="10" t="s">
@@ -1663,8 +1676,49 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="21">
+        <v>2020</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
       <c r="G28" s="23"/>
+      <c r="H28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="11" t="str">
+        <f t="shared" ref="I28" si="3">IF(OR(AND(H28&gt;1,H28&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="21">
+        <v>2020</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="11" t="str">
+        <f t="shared" ref="I29" si="4">IF(OR(AND(H29&gt;1,H29&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1673,11 +1727,28 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H15 H21">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H15 H21">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:H20">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:H20">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1689,12 +1760,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:H20">
+  <conditionalFormatting sqref="H22:H28">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:H20">
+  <conditionalFormatting sqref="H22:H28">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1706,12 +1777,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H27">
+  <conditionalFormatting sqref="H16">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H27">
+  <conditionalFormatting sqref="H16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1723,12 +1794,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
+  <conditionalFormatting sqref="H17">
     <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
+  <conditionalFormatting sqref="H17">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1740,12 +1811,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
+  <conditionalFormatting sqref="H29">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1774,14 +1845,14 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
@@ -1792,7 +1863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1803,7 +1874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1814,7 +1885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1825,7 +1896,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1836,25 +1907,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>47</v>
       </c>
     </row>

--- a/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Belgium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Belgium\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8294B61-339A-4B8A-B45A-65115449B9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{52428FB7-C178-4620-AD87-802031B6B643}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{7EAEAEC7-554A-4434-94F2-D46346D4CD44}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Koninklijke Nederlandse Munt
+(Netherlands mint(Utrecht))</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{BDEC5EB1-31D1-41A0-AA65-FD2FEB9C787A}">
       <text>
         <r>
           <rPr>
@@ -62,12 +79,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{E2A9809C-8D69-4338-9440-4B673A4B7F2C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Koninklijke Nederlandse Munt
+(Netherlands mint(Utrecht))</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="59">
   <si>
     <t>Year</t>
   </si>
@@ -79,9 +112,6 @@
   </si>
   <si>
     <t>Mintage</t>
-  </si>
-  <si>
-    <t>2€</t>
   </si>
   <si>
     <t>Subtype_1</t>
@@ -239,13 +269,26 @@
   </si>
   <si>
     <t>Jan van Eyck</t>
+  </si>
+  <si>
+    <t>Obv: With mint symbol - 
+Staff of Mercury</t>
+  </si>
+  <si>
+    <t>755.000</t>
+  </si>
+  <si>
+    <t>NL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -310,13 +353,6 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -362,7 +398,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -464,19 +500,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -516,9 +558,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,8 +573,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -551,14 +596,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -568,13 +634,20 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -630,16 +703,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="3"/>
-    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -907,30 +980,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
-    <col min="3" max="5" width="24.7265625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="24.81640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="11" customWidth="1"/>
+    <col min="3" max="5" width="24.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="11" customWidth="1"/>
+    <col min="7" max="8" width="12.42578125" style="11" customWidth="1"/>
+    <col min="9" max="10" width="3.85546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -943,795 +1016,1047 @@
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
       <c r="F1" s="30"/>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="32"/>
+      <c r="I1" s="33">
+        <v>2</v>
+      </c>
+      <c r="J1" s="34"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>2005</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22">
-        <v>2005</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8">
+        <v>6000000</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="10" t="str">
+        <f>IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>2006</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="8">
+        <v>5000000</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="10" t="str">
+        <f t="shared" ref="K4:K12" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>2007</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8">
+        <v>5000000</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>2008</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8">
+        <v>5000000</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>2009</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8">
+        <v>5011000</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>2009</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8">
+        <v>5000000</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>2010</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9">
-        <v>6000000</v>
-      </c>
-      <c r="H3" s="10">
+      <c r="F9" s="7"/>
+      <c r="G9" s="8">
+        <v>5000000</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="9">
         <v>0</v>
       </c>
-      <c r="I3" s="11" t="str">
-        <f t="shared" ref="I3:I4" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21">
-        <v>2006</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="J9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>2011</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9">
+      <c r="F10" s="7"/>
+      <c r="G10" s="8">
         <v>5000000</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="9">
         <v>0</v>
       </c>
-      <c r="I4" s="11" t="str">
+      <c r="J10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21">
-        <v>2007</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="8" t="s">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>2012</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9">
+      <c r="F11" s="7"/>
+      <c r="G11" s="8">
         <v>5000000</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H11" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>2012</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8">
+        <v>5000000</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="10" t="str">
+        <f>IF(OR(AND(I12&gt;1,I12&lt;&gt;"-"),AND(J12&gt;1,J12&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>2013</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8">
+        <v>2020000</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="9">
         <v>0</v>
       </c>
-      <c r="I5" s="11" t="str">
-        <f t="shared" ref="I5:I27" si="1">IF(OR(AND(H5&gt;1,H5&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21">
-        <v>2008</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9">
-        <v>5000000</v>
-      </c>
-      <c r="H6" s="10">
+      <c r="J13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="10" t="str">
+        <f t="shared" ref="K13:K29" si="1">IF(OR(AND(I13&gt;1,I13&lt;&gt;"-"),AND(J13&gt;1,J13&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>2014</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8">
+        <v>1750000</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="9">
         <v>0</v>
       </c>
-      <c r="I6" s="11" t="str">
+      <c r="J14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21">
-        <v>2009</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9">
-        <v>5011000</v>
-      </c>
-      <c r="H7" s="10">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8">
+        <v>287500</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="9">
         <v>0</v>
       </c>
-      <c r="I7" s="11" t="str">
+      <c r="J15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21">
-        <v>2009</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9">
-        <v>5000000</v>
-      </c>
-      <c r="H8" s="10">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="8">
+        <v>20000</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="9">
         <v>0</v>
       </c>
-      <c r="I8" s="11" t="str">
+      <c r="J16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21">
-        <v>2010</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="8" t="s">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>2014</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9">
-        <v>5000000</v>
-      </c>
-      <c r="H9" s="10">
+      <c r="F17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="8">
+        <v>10000</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="9">
         <v>0</v>
       </c>
-      <c r="I9" s="11" t="str">
+      <c r="J17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21">
-        <v>2011</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="8" t="s">
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
+        <v>2015</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9">
-        <v>5000000</v>
-      </c>
-      <c r="H10" s="10">
+      <c r="F18" s="7"/>
+      <c r="G18" s="21">
+        <v>235000</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="21">
+        <v>412500</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="21">
+        <v>325000</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>2016</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8">
+        <v>1020000</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="9">
         <v>0</v>
       </c>
-      <c r="I10" s="11" t="str">
+      <c r="J21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21">
-        <v>2012</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9">
-        <v>5000000</v>
-      </c>
-      <c r="H11" s="25">
-        <v>1</v>
-      </c>
-      <c r="I11" s="11" t="str">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="21">
+        <v>200000</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21">
-        <v>2012</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9">
-        <v>5000000</v>
-      </c>
-      <c r="H12" s="10">
-        <v>1</v>
-      </c>
-      <c r="I12" s="11" t="str">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>2017</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="21">
+        <v>200000</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21">
-        <v>2013</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="8" t="s">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
+        <v>2018</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9">
-        <v>2020000</v>
-      </c>
-      <c r="H13" s="10">
+      <c r="F24" s="7"/>
+      <c r="G24" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="21">
+        <v>257500</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>2018</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="21">
+        <v>257500</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19">
+        <v>2019</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="21">
+        <v>155000</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="21">
+        <v>155000</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
+        <v>2020</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="9">
         <v>0</v>
       </c>
-      <c r="I13" s="11" t="str">
+      <c r="K28" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="21">
-        <v>2014</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="8" t="s">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19">
+        <v>2020</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9">
-        <v>1750000</v>
-      </c>
-      <c r="H14" s="10">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11" t="str">
+      <c r="F29" s="7"/>
+      <c r="G29" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="21">
+        <v>155000</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="21">
-        <v>2014</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9">
-        <v>287500</v>
-      </c>
-      <c r="H15" s="10">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21">
-        <v>2014</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="9">
-        <v>20000</v>
-      </c>
-      <c r="H16" s="10">
-        <v>0</v>
-      </c>
-      <c r="I16" s="11" t="str">
-        <f t="shared" ref="I16:I17" si="2">IF(OR(AND(H16&gt;1,H16&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="21">
-        <v>2014</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="9">
-        <v>10000</v>
-      </c>
-      <c r="H17" s="10">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21">
-        <v>2015</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="23">
-        <v>235000</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="21">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="23">
-        <v>412500</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21">
-        <v>2016</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="23">
-        <v>325000</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="21">
-        <v>2016</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9">
-        <v>1020000</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="21">
-        <v>2017</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="23">
-        <v>200000</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="21">
-        <v>2017</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="23">
-        <v>200000</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="21">
-        <v>2018</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="23">
-        <v>257500</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="21">
-        <v>2018</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="23">
-        <v>257500</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="21">
-        <v>2019</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="23">
-        <v>155000</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="21">
-        <v>2019</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="23">
-        <v>155000</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21">
-        <v>2020</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="11" t="str">
-        <f t="shared" ref="I28" si="3">IF(OR(AND(H28&gt;1,H28&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="21">
-        <v>2020</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="11" t="str">
-        <f t="shared" ref="I29" si="4">IF(OR(AND(H29&gt;1,H29&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3:H15 H21">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+  <conditionalFormatting sqref="I21 I3:I15">
+    <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H15 H21">
+  <conditionalFormatting sqref="I3:I15 I21">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I20">
+    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I20">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I27 J3:J27 J29">
+    <cfRule type="containsText" dxfId="8" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I27 J3:J27 J29">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1743,12 +2068,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:H20">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I28))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:H20">
+  <conditionalFormatting sqref="I28">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1760,46 +2085,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H28">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H22))))</formula>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H28">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
+  <conditionalFormatting sqref="I16">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1811,12 +2102,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="I17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1835,7 +2126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1845,98 +2136,98 @@
       <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C3" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="13">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="24" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" location="svodka"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" location="svodka" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Belgium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Belgium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8294B61-339A-4B8A-B45A-65115449B9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916F6A25-492E-4F8B-8EFF-A15C9EDA67F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -100,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="66">
   <si>
     <t>Year</t>
   </si>
@@ -268,9 +277,6 @@
     <t>International year of plant health</t>
   </si>
   <si>
-    <t>Jan van Eyck</t>
-  </si>
-  <si>
     <t>Obv: With mint symbol - 
 Staff of Mercury</t>
   </si>
@@ -279,6 +285,30 @@
   </si>
   <si>
     <t>NL</t>
+  </si>
+  <si>
+    <t>Art Nouveau</t>
+  </si>
+  <si>
+    <t>75th Anniversary - Women's suffrage in Belgium</t>
+  </si>
+  <si>
+    <t>Honoring the Healthcare During the Covid-pandemic</t>
+  </si>
+  <si>
+    <t>35th Anniversary - Erasmus Programme</t>
+  </si>
+  <si>
+    <t>500th Anniversary - Issuance of the Carolus V Guilder</t>
+  </si>
+  <si>
+    <t>100th Anniversary - Belgium–Luxembourg Economic Union</t>
+  </si>
+  <si>
+    <t>630th Anniversary - Birth of Jan van Eyck</t>
+  </si>
+  <si>
+    <t>Obv: Mint director symbol - Aster flower</t>
   </si>
 </sst>
 </file>
@@ -615,7 +645,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="20">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -624,6 +654,78 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -981,29 +1083,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="11" customWidth="1"/>
-    <col min="3" max="5" width="24.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="11" customWidth="1"/>
-    <col min="7" max="8" width="12.42578125" style="11" customWidth="1"/>
-    <col min="9" max="10" width="3.85546875" style="11" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="11" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
+    <col min="3" max="5" width="24.7265625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" style="11" customWidth="1"/>
+    <col min="7" max="8" width="12.453125" style="11" customWidth="1"/>
+    <col min="9" max="10" width="3.81640625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1128,7 @@
       <c r="J1" s="34"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
@@ -1041,17 +1143,17 @@
         <v>22</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20">
         <v>2005</v>
       </c>
@@ -1075,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>6</v>
@@ -1085,7 +1187,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19">
         <v>2006</v>
       </c>
@@ -1109,17 +1211,17 @@
         <v>6</v>
       </c>
       <c r="I4" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="10" t="str">
-        <f t="shared" ref="K4:K12" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K4:K11" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <v>2007</v>
       </c>
@@ -1154,7 +1256,7 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19">
         <v>2008</v>
       </c>
@@ -1178,7 +1280,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>6</v>
@@ -1188,7 +1290,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>2009</v>
       </c>
@@ -1212,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>6</v>
@@ -1222,7 +1324,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19">
         <v>2009</v>
       </c>
@@ -1246,7 +1348,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>6</v>
@@ -1256,7 +1358,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <v>2010</v>
       </c>
@@ -1280,7 +1382,7 @@
         <v>6</v>
       </c>
       <c r="I9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>6</v>
@@ -1291,7 +1393,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <v>2011</v>
       </c>
@@ -1315,7 +1417,7 @@
         <v>6</v>
       </c>
       <c r="I10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>6</v>
@@ -1325,7 +1427,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>2012</v>
       </c>
@@ -1359,7 +1461,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19">
         <v>2012</v>
       </c>
@@ -1393,7 +1495,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <v>2013</v>
       </c>
@@ -1427,7 +1529,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>2014</v>
       </c>
@@ -1451,7 +1553,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>6</v>
@@ -1461,7 +1563,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19">
         <v>2014</v>
       </c>
@@ -1495,7 +1597,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19">
         <v>2014</v>
       </c>
@@ -1531,7 +1633,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19">
         <v>2014</v>
       </c>
@@ -1567,7 +1669,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="19">
         <v>2015</v>
       </c>
@@ -1601,7 +1703,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19">
         <v>2015</v>
       </c>
@@ -1618,14 +1720,14 @@
         <v>50</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="G19" s="21">
+      <c r="G19" s="8">
         <v>412500</v>
       </c>
       <c r="H19" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>6</v>
+      <c r="I19" s="9">
+        <v>1</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>6</v>
@@ -1635,7 +1737,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19">
         <v>2016</v>
       </c>
@@ -1669,7 +1771,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="19">
         <v>2016</v>
       </c>
@@ -1693,7 +1795,7 @@
         <v>6</v>
       </c>
       <c r="I21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>6</v>
@@ -1703,7 +1805,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="19">
         <v>2017</v>
       </c>
@@ -1737,7 +1839,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19">
         <v>2017</v>
       </c>
@@ -1771,7 +1873,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="19">
         <v>2018</v>
       </c>
@@ -1779,7 +1881,7 @@
         <v>38</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>42</v>
@@ -1805,7 +1907,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="19">
         <v>2018</v>
       </c>
@@ -1813,7 +1915,7 @@
         <v>39</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>42</v>
@@ -1825,21 +1927,21 @@
       <c r="G25" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="8">
         <v>257500</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>6</v>
+      <c r="J25" s="9">
+        <v>1</v>
       </c>
       <c r="K25" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="19">
         <v>2019</v>
       </c>
@@ -1847,7 +1949,7 @@
         <v>40</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>42</v>
@@ -1873,7 +1975,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="19">
         <v>2019</v>
       </c>
@@ -1881,7 +1983,7 @@
         <v>41</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>42</v>
@@ -1907,7 +2009,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="19">
         <v>2020</v>
       </c>
@@ -1915,7 +2017,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>42</v>
@@ -1928,28 +2030,28 @@
         <v>6</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J28" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="19">
         <v>2020</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>42</v>
@@ -1972,6 +2074,210 @@
       </c>
       <c r="K29" s="10" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="19">
+        <v>2021</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="21">
+        <v>155000</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="10" t="str">
+        <f t="shared" ref="K30:K31" si="2">IF(OR(AND(I30&gt;1,I30&lt;&gt;"-"),AND(J30&gt;1,J30&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="19">
+        <v>2021</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="21">
+        <v>155000</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="19">
+        <v>2022</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="8">
+        <v>2155000</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0</v>
+      </c>
+      <c r="K32" s="10" t="str">
+        <f t="shared" ref="K32:K35" si="3">IF(OR(AND(I32&gt;1,I32&lt;&gt;"-"),AND(J32&gt;1,J32&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="19">
+        <v>2022</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="9">
+        <v>1</v>
+      </c>
+      <c r="K33" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="8">
+        <v>155000</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="9">
+        <v>0</v>
+      </c>
+      <c r="K34" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="8">
+        <v>130000</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="9">
+        <v>0</v>
+      </c>
+      <c r="K35" s="10" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1984,11 +2290,164 @@
     <mergeCell ref="I1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="I21 I3:I15">
+    <cfRule type="containsText" dxfId="19" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I15 I21">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I20">
+    <cfRule type="containsText" dxfId="18" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I20">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I27 J3:J27 J29">
+    <cfRule type="containsText" dxfId="17" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I27 J3:J27 J29">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="containsText" dxfId="16" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="containsText" dxfId="15" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="containsText" dxfId="14" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="containsText" dxfId="13" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="containsText" dxfId="12" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="containsText" dxfId="11" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
     <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I15 I21">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2000,13 +2459,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I20">
-    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I20">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="I33">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2017,13 +2476,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I27 J3:J27 J29">
-    <cfRule type="containsText" dxfId="8" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I27 J3:J27 J29">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="I32">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2034,29 +2493,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
+  <conditionalFormatting sqref="I35">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2068,12 +2510,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
+  <conditionalFormatting sqref="I34">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2085,12 +2527,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
+  <conditionalFormatting sqref="J32:J35">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:J35">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
     <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2102,12 +2561,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
+  <conditionalFormatting sqref="J31">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2133,17 +2592,17 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -2154,7 +2613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -2165,7 +2624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -2176,7 +2635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -2187,7 +2646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -2198,7 +2657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -2209,7 +2668,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>6</v>
       </c>

--- a/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Belgium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916F6A25-492E-4F8B-8EFF-A15C9EDA67F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF8ACCD-5E76-4DF1-8D23-35DD01F32DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6070" yWindow="1120" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -109,12 +109,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="68">
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>Series</t>
   </si>
   <si>
     <t>Type</t>
@@ -309,6 +306,15 @@
   </si>
   <si>
     <t>Obv: Mint director symbol - Aster flower</t>
+  </si>
+  <si>
+    <t>Subtype_3</t>
+  </si>
+  <si>
+    <t>Subtype_4</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1095,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1110,16 +1116,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
       <c r="F1" s="30"/>
       <c r="G1" s="31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1" s="32"/>
       <c r="I1" s="33">
@@ -1132,24 +1138,28 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="F2" s="4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K2" s="3"/>
     </row>
@@ -1158,29 +1168,29 @@
         <v>2005</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="8">
         <v>6000000</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" s="9">
         <v>1</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" s="10" t="str">
         <f>IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
@@ -1192,29 +1202,29 @@
         <v>2006</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8">
         <v>5000000</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" s="9">
         <v>1</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4" s="10" t="str">
         <f t="shared" ref="K4:K11" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-")),"Can exchange","")</f>
@@ -1226,29 +1236,29 @@
         <v>2007</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8">
         <v>5000000</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5" s="9">
         <v>0</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1261,29 +1271,29 @@
         <v>2008</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8">
         <v>5000000</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6" s="9">
         <v>1</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1295,29 +1305,29 @@
         <v>2009</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8">
         <v>5011000</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7" s="9">
         <v>1</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K7" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1329,29 +1339,29 @@
         <v>2009</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8">
         <v>5000000</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I8" s="9">
         <v>1</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K8" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1363,29 +1373,29 @@
         <v>2010</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8">
         <v>5000000</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I9" s="9">
         <v>1</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1398,29 +1408,29 @@
         <v>2011</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8">
         <v>5000000</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10" s="9">
         <v>1</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K10" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1432,29 +1442,29 @@
         <v>2012</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8">
         <v>5000000</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I11" s="9">
         <v>1</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K11" s="10" t="str">
         <f t="shared" si="0"/>
@@ -1466,29 +1476,29 @@
         <v>2012</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="8">
         <v>5000000</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I12" s="9">
         <v>1</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K12" s="10" t="str">
         <f>IF(OR(AND(I12&gt;1,I12&lt;&gt;"-"),AND(J12&gt;1,J12&lt;&gt;"-")),"Can exchange","")</f>
@@ -1500,29 +1510,29 @@
         <v>2013</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="8">
         <v>2020000</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I13" s="9">
         <v>0</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K13" s="10" t="str">
         <f t="shared" ref="K13:K29" si="1">IF(OR(AND(I13&gt;1,I13&lt;&gt;"-"),AND(J13&gt;1,J13&lt;&gt;"-")),"Can exchange","")</f>
@@ -1534,29 +1544,29 @@
         <v>2014</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8">
         <v>1750000</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I14" s="9">
         <v>1</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K14" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1568,29 +1578,29 @@
         <v>2014</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="8">
         <v>287500</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I15" s="9">
         <v>0</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K15" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1602,31 +1612,31 @@
         <v>2014</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" s="8">
         <v>20000</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I16" s="9">
         <v>0</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K16" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1638,31 +1648,31 @@
         <v>2014</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="8">
         <v>10000</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I17" s="9">
         <v>0</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K17" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1674,29 +1684,29 @@
         <v>2015</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="21">
         <v>235000</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K18" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1708,29 +1718,29 @@
         <v>2015</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="8">
         <v>412500</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I19" s="9">
         <v>1</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K19" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1742,29 +1752,29 @@
         <v>2016</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="21">
         <v>325000</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K20" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1776,29 +1786,29 @@
         <v>2016</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="8">
         <v>1020000</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I21" s="9">
         <v>1</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K21" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1810,29 +1820,29 @@
         <v>2017</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="21">
         <v>200000</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K22" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1844,29 +1854,29 @@
         <v>2017</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="21">
         <v>200000</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K23" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1878,29 +1888,29 @@
         <v>2018</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H24" s="21">
         <v>257500</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K24" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1912,26 +1922,26 @@
         <v>2018</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H25" s="8">
         <v>257500</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J25" s="9">
         <v>1</v>
@@ -1946,29 +1956,29 @@
         <v>2019</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H26" s="21">
         <v>155000</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K26" s="10" t="str">
         <f t="shared" si="1"/>
@@ -1980,29 +1990,29 @@
         <v>2019</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H27" s="21">
         <v>155000</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K27" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2014,26 +2024,26 @@
         <v>2020</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="D28" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J28" s="9">
         <v>1</v>
@@ -2048,29 +2058,29 @@
         <v>2020</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H29" s="21">
         <v>155000</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K29" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2082,29 +2092,29 @@
         <v>2021</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H30" s="21">
         <v>155000</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K30" s="10" t="str">
         <f t="shared" ref="K30:K31" si="2">IF(OR(AND(I30&gt;1,I30&lt;&gt;"-"),AND(J30&gt;1,J30&lt;&gt;"-")),"Can exchange","")</f>
@@ -2116,29 +2126,29 @@
         <v>2021</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H31" s="21">
         <v>155000</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K31" s="10" t="str">
         <f t="shared" si="2"/>
@@ -2150,26 +2160,26 @@
         <v>2022</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H32" s="8">
         <v>2155000</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J32" s="9">
         <v>0</v>
@@ -2184,26 +2194,26 @@
         <v>2022</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H33" s="8">
         <v>1000000</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J33" s="9">
         <v>1</v>
@@ -2218,26 +2228,26 @@
         <v>2023</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H34" s="8">
         <v>155000</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J34" s="9">
         <v>0</v>
@@ -2252,26 +2262,26 @@
         <v>2023</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H35" s="8">
         <v>130000</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J35" s="9">
         <v>0</v>
@@ -2604,13 +2614,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -2618,10 +2628,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2629,10 +2639,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2640,10 +2650,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2651,10 +2661,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2662,10 +2672,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>44</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2673,10 +2683,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Belgium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF8ACCD-5E76-4DF1-8D23-35DD01F32DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00BC585-9A58-4186-94A4-90638FAEC95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6070" yWindow="1120" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7540" yWindow="2540" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="68">
   <si>
     <t>Year</t>
   </si>
@@ -651,7 +651,47 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -818,9 +858,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="6" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1095,7 +1135,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1626,14 +1666,14 @@
       <c r="F16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="21">
         <v>20000</v>
       </c>
       <c r="H16" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="9">
-        <v>0</v>
+      <c r="I16" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>5</v>
@@ -1662,14 +1702,14 @@
       <c r="F17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="21">
         <v>10000</v>
       </c>
       <c r="H17" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="9">
-        <v>0</v>
+      <c r="I17" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>5</v>
@@ -1937,7 +1977,7 @@
       <c r="G25" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="21">
         <v>257500</v>
       </c>
       <c r="I25" s="9" t="s">
@@ -2181,8 +2221,8 @@
       <c r="I32" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J32" s="9">
-        <v>0</v>
+      <c r="J32" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="K32" s="10" t="str">
         <f t="shared" ref="K32:K35" si="3">IF(OR(AND(I32&gt;1,I32&lt;&gt;"-"),AND(J32&gt;1,J32&lt;&gt;"-")),"Can exchange","")</f>
@@ -2243,14 +2283,14 @@
       <c r="G34" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="21">
         <v>155000</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J34" s="9">
-        <v>0</v>
+      <c r="J34" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="K34" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2277,14 +2317,14 @@
       <c r="G35" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="21">
         <v>130000</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="9">
-        <v>0</v>
+      <c r="J35" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="K35" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2300,11 +2340,62 @@
     <mergeCell ref="I1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="I21 I3:I15">
-    <cfRule type="containsText" dxfId="19" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I15 I21">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I20">
+    <cfRule type="containsText" dxfId="23" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I20">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I27 J3:J27 J29">
+    <cfRule type="containsText" dxfId="22" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I27 J3:J27 J29">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="containsText" dxfId="21" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2316,29 +2407,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I20">
-    <cfRule type="containsText" dxfId="18" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I20">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I27 J3:J27 J29">
-    <cfRule type="containsText" dxfId="17" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I27 J3:J27 J29">
+  <conditionalFormatting sqref="J28">
+    <cfRule type="containsText" dxfId="20" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2350,13 +2424,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="16" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="colorScale" priority="48">
+  <conditionalFormatting sqref="I28">
+    <cfRule type="containsText" dxfId="19" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2367,13 +2441,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="15" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="colorScale" priority="44">
+  <conditionalFormatting sqref="I31">
+    <cfRule type="containsText" dxfId="16" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2384,29 +2458,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="containsText" dxfId="14" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="containsText" dxfId="13" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
+  <conditionalFormatting sqref="I30">
+    <cfRule type="containsText" dxfId="15" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2418,29 +2475,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="containsText" dxfId="12" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="containsText" dxfId="11" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
+  <conditionalFormatting sqref="I33">
+    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2452,13 +2492,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="I32">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2469,12 +2509,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
+  <conditionalFormatting sqref="I35">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2486,13 +2543,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="J33">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2503,12 +2560,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
+  <conditionalFormatting sqref="J30">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2520,12 +2594,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
+  <conditionalFormatting sqref="J32">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2537,12 +2611,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32:J35">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32:J35">
+  <conditionalFormatting sqref="J34">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2554,12 +2645,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
+  <conditionalFormatting sqref="I16">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2571,12 +2662,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
+  <conditionalFormatting sqref="I17">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2602,7 +2693,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
